--- a/biology/Botanique/Prunus_pendula/Prunus_pendula.xlsx
+++ b/biology/Botanique/Prunus_pendula/Prunus_pendula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus pendula (Nb Cerasus spachiana  f. spachiana, Synonyme : Prunus pendula Maxim., 1884）est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un arbuste que l'on le trouve en Asie de l'est, à l'état sauvage.
 En français, il est appelé communément Cerisier pleureur. Au Japon, on l'appelle シダレザクラ (Shidarezakura?). Il existe différentes variétés comme les  Yaebenishidare, Benishidare (Prunus subhirtella) ou encore Kiyosumishidare (Cerasus × parvifolia 'Pendula).
-Selon Plants of the World Online, c'est un synonyme de Prunus itosakura[1].
+Selon Plants of the World Online, c'est un synonyme de Prunus itosakura.
 Sa période de floraison est d'avril à fin mars (environ une semaine plus tôt que le cerisier Yoshino). Sa fleur est également l'un des symboles préfectoraux de la préfecture de Kyoto.
 </t>
         </is>
